--- a/StructureDefinition-ext-R5-ImplementationGuide.manifest.xlsx
+++ b/StructureDefinition-ext-R5-ImplementationGuide.manifest.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,7 +482,7 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|0.0.1-snapshot-3|Resource|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Resource|Resource)
 </t>
   </si>
   <si>
@@ -563,7 +563,7 @@
     <t>Extension.extension:resource.extension:profile.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|0.0.1-snapshot-3|StructureDefinition|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-StructureDefinition|StructureDefinition)
 </t>
   </si>
   <si>
